--- a/BE/Employee-Management/CleanArchitecture/UploadedFiles/Danh_sach_nhan_vien.xlsx
+++ b/BE/Employee-Management/CleanArchitecture/UploadedFiles/Danh_sach_nhan_vien.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Documents\Misa\Doc\DE_THI_FRESHER_TCDN_V6\DE_THI_FRESHER_TCDN_V6\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manhn\Desktop\New folder\TCDN\Khoi TCDN\UI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F83D704B-700C-4E00-A91F-11C8DA11FD42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1CA5DDB-6170-420B-B949-E82252D79DF2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4272" yWindow="3276" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4155" yWindow="4155" windowWidth="38700" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DANH SÁCH NHÂN VIÊN" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="53">
   <si>
     <t>STT</t>
   </si>
@@ -179,9 +179,6 @@
   </si>
   <si>
     <t>DANH SÁCH NHÂN VIÊN</t>
-  </si>
-  <si>
-    <t>Phòng Đào tạo</t>
   </si>
 </sst>
 </file>
@@ -267,29 +264,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="9">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -609,593 +606,593 @@
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5" style="2" customWidth="1"/>
-    <col min="2" max="2" width="16" style="2" customWidth="1"/>
-    <col min="3" max="3" width="26.6640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="16" style="3" customWidth="1"/>
-    <col min="6" max="7" width="26.6640625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="16" style="2" customWidth="1"/>
-    <col min="9" max="9" width="26.6640625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="5" style="3" customWidth="1"/>
+    <col min="2" max="2" width="16" style="3" customWidth="1"/>
+    <col min="3" max="3" width="26.7109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="16" style="4" customWidth="1"/>
+    <col min="6" max="7" width="26.7109375" style="3" customWidth="1"/>
+    <col min="8" max="8" width="16" style="3" customWidth="1"/>
+    <col min="9" max="9" width="26.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:9" s="8" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-    </row>
-    <row r="2" spans="1:9" s="1" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+    </row>
+    <row r="2" spans="1:9" s="8" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
+      <c r="A4" s="6">
         <v>47</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="5" t="s">
+      <c r="D4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
+        <v>48</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
+        <v>49</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
+        <v>50</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="6">
+        <v>51</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="6">
+        <v>52</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="6">
         <v>53</v>
       </c>
-      <c r="H4" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
+      <c r="B10" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="6">
+        <v>54</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="6">
+        <v>55</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="6">
+        <v>56</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="6">
+        <v>57</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="6">
+        <v>58</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="6">
+        <v>59</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="6">
+        <v>60</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="6">
+        <v>61</v>
+      </c>
+      <c r="B18" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" s="5" t="s">
+      <c r="C18" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="5" t="s">
+      <c r="E18" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G18" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
+      <c r="H18" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I18" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="6">
+        <v>62</v>
+      </c>
+      <c r="B19" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" s="5" t="s">
+      <c r="C19" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
+      <c r="E19" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="6">
+        <v>63</v>
+      </c>
+      <c r="B20" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
+      <c r="C20" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="6">
+        <v>64</v>
+      </c>
+      <c r="B21" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="5" t="s">
+      <c r="C21" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
-        <v>52</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
-        <v>53</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
-        <v>54</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
-        <v>55</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="I12" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A13" s="5">
-        <v>56</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="I13" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="5">
-        <v>57</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="I14" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="5">
-        <v>58</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="I15" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="5">
-        <v>59</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H16" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="I16" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="5">
-        <v>60</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H17" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="I17" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="5">
-        <v>61</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H18" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="I18" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="5">
-        <v>62</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" s="5" t="s">
+      <c r="E21" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G21" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="H19" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="I19" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="5">
-        <v>63</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="H20" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="I20" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="5">
-        <v>64</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="H21" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="I21" s="5" t="s">
+      <c r="H21" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I21" s="6" t="s">
         <v>11</v>
       </c>
     </row>
